--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215120.9204730578</v>
+        <v>213233.3389566557</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>158.4114768367735</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>245.4588842880047</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>10.03156470826291</v>
+        <v>151.2725262699914</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0816468328788</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>185.7379222764286</v>
       </c>
     </row>
     <row r="6">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>145.07143439176</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.9407888106548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>81.80815957290413</v>
+        <v>230.7363591440962</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>49.52297001931485</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>78.13981344678575</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464269</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>94.30542059989553</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>88.33114047391237</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>66.70765698000574</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.0409689064682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>79.44183114688245</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>73.01852064932092</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>85.83577146853568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.2425576766698</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>283.1192119576595</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>182.8414065694708</v>
+        <v>271.3123003628594</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>21.84773706512054</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>39.08079428425795</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373725</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898724</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224542</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.753074569373</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C2" t="n">
-        <v>726.7905576289616</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D2" t="n">
-        <v>726.7905576289616</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E2" t="n">
-        <v>726.7905576289616</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="F2" t="n">
-        <v>719.8450568797581</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>301.881248777945</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.753074569373</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>428.8224802162921</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1249.712458167646</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1249.712458167646</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>838.7265533780385</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4744,28 +4744,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>581.5921817905153</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468208</v>
+        <v>354.283994459117</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468208</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468208</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468208</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468208</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
         <v>99.5995062532301</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751178</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="C8" t="n">
-        <v>1452.061221751178</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="D8" t="n">
-        <v>1093.795523144427</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="E8" t="n">
-        <v>708.007270546183</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.2948950230958</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230958</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230958</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619851</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.1124611285451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>822.967214533373</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345002</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>825.1124611285451</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>825.1124611285451</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641556</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1409.69289634183</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>1155.008408135943</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.008408135943</v>
+        <v>496.6650364395576</v>
       </c>
       <c r="X16" t="n">
-        <v>927.0188572379254</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.2262780943953</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5501,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.888341328817</v>
+        <v>475.7924673804755</v>
       </c>
       <c r="C19" t="n">
-        <v>410.888341328817</v>
+        <v>475.7924673804755</v>
       </c>
       <c r="D19" t="n">
-        <v>410.888341328817</v>
+        <v>475.7924673804755</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>327.8793737980824</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>327.8793737980824</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570741</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570741</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X19" t="n">
-        <v>592.5368061590567</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="Y19" t="n">
-        <v>592.5368061590567</v>
+        <v>475.7924673804755</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397.7517393246783</v>
+        <v>321.3911813763035</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
         <v>247.6350999123426</v>
@@ -5902,16 +5902,16 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293931</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>846.5338693662258</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X22" t="n">
-        <v>618.5443184682084</v>
+        <v>503.0396462065432</v>
       </c>
       <c r="Y22" t="n">
-        <v>397.7517393246783</v>
+        <v>503.0396462065432</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1340.085404217832</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>789.2318432855265</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>534.5473550796396</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,19 +6239,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529254</v>
+        <v>525.6009593486383</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529254</v>
+        <v>356.6647764207314</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405895</v>
+        <v>356.6647764207314</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1314.22798109379</v>
+        <v>1001.078026698055</v>
       </c>
       <c r="V28" t="n">
-        <v>1059.543492887903</v>
+        <v>746.3935384921684</v>
       </c>
       <c r="W28" t="n">
-        <v>770.1263228509428</v>
+        <v>746.3935384921684</v>
       </c>
       <c r="X28" t="n">
-        <v>542.1367719529254</v>
+        <v>746.3935384921684</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529254</v>
+        <v>525.6009593486383</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542164</v>
+        <v>604.5641438163784</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076802</v>
+        <v>491.3888261698423</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076802</v>
+        <v>397.0330520388774</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076802</v>
+        <v>304.8808237378551</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297806</v>
+        <v>304.8808237378551</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>192.4663673390464</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818916</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365245</v>
+        <v>730.4517433652474</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030855</v>
+        <v>730.4517433652474</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6862,31 +6862,31 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7418,28 +7418,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928291</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>131.4042347891416</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>197.906211924665</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>159.0019984090314</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>2.392993740100962</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>87.05173731649514</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>94.22830044930691</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>200.6872268680553</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>40.67825230693345</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3.118140440917836</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.3959458291066</v>
+        <v>14.92505203571795</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.37005432925375</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>54.62977745472109</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.441069613649211e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26317,19 +26317,19 @@
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="G2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032813</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
         <v>293271.7948032815</v>
@@ -26338,10 +26338,10 @@
         <v>293271.7948032815</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089525</v>
+        <v>305116.6030089527</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991063</v>
@@ -26350,7 +26350,7 @@
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991064</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007455</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007454</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007396</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732804</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732795</v>
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002536</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26522,43 +26522,43 @@
         <v>-512853.3422947683</v>
       </c>
       <c r="C6" t="n">
-        <v>77114.53691977603</v>
+        <v>77114.53691977597</v>
       </c>
       <c r="D6" t="n">
-        <v>77114.53691977607</v>
+        <v>77114.53691977626</v>
       </c>
       <c r="E6" t="n">
-        <v>-331792.2992783389</v>
+        <v>-331889.758404311</v>
       </c>
       <c r="F6" t="n">
-        <v>193367.7371985574</v>
+        <v>193270.2780725851</v>
       </c>
       <c r="G6" t="n">
-        <v>193367.7371985575</v>
+        <v>193270.278072585</v>
       </c>
       <c r="H6" t="n">
-        <v>193367.7371985574</v>
+        <v>193270.2780725851</v>
       </c>
       <c r="I6" t="n">
-        <v>193367.7371985574</v>
+        <v>193270.2780725853</v>
       </c>
       <c r="J6" t="n">
-        <v>16944.51800596442</v>
+        <v>16847.05887999224</v>
       </c>
       <c r="K6" t="n">
-        <v>138244.4350056802</v>
+        <v>138225.9412677459</v>
       </c>
       <c r="L6" t="n">
-        <v>169497.1321808859</v>
+        <v>169497.1321808861</v>
       </c>
       <c r="M6" t="n">
-        <v>45039.02374791574</v>
+        <v>45039.02374791579</v>
       </c>
       <c r="N6" t="n">
-        <v>179840.038981753</v>
+        <v>179840.0389817529</v>
       </c>
       <c r="O6" t="n">
-        <v>179840.0389817529</v>
+        <v>179840.0389817531</v>
       </c>
       <c r="P6" t="n">
         <v>135677.4336789075</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.1318901296406</v>
-      </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>248.4645689049379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>78.46388847635245</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>242.1060786155651</v>
+        <v>100.8651170538366</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.7025231879161</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>200.500016379625</v>
       </c>
     </row>
     <row r="6">
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>67.07410455825894</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.64386454144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>325.0678861688073</v>
+        <v>176.1396865976153</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>117.723851079313</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>147.5698419422514</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29326,10 +29326,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221084</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
